--- a/data/sharepoint_docs/Negotiation-Progress-Report/negotiation_MO0008_船橋物流センター北_v1.0.xlsx
+++ b/data/sharepoint_docs/Negotiation-Progress-Report/negotiation_MO0008_船橋物流センター北_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shota.hayashida\Downloads\サンプル報告書\Negotiation-Progress-Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shota.hayashida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F281EC2-08D1-42D6-83C0-20295956FA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF32ED-F65E-496F-B90B-172383B52988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="20340" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーナー・管理会社・元請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理会社</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -392,10 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>工事一時中断で合意、復旧見込み確認を依頼</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>立会</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -413,13 +405,6 @@
   </si>
   <si>
     <t>屋上防水・手すり・基礎修復の復旧工程案共有</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>復旧完了目安：3-4か月の見込み、解除条件の文面化依頼</t>
-    <rPh sb="11" eb="12">
-      <t>ゲツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -427,6 +412,27 @@
     <rPh sb="0" eb="2">
       <t>キョウユウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復旧完了には少なくとも3-4か月の見込みと報告</t>
+    <rPh sb="6" eb="7">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台風による建物の大規模損傷のため一時中断で合意</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1020,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:M29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1493,7 +1499,7 @@
         <v>105</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>59</v>
@@ -1523,13 +1529,13 @@
         <v>61</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1550,16 +1556,16 @@
         <v>62</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="G24" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1583,13 +1589,13 @@
         <v>61</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1609,13 +1615,13 @@
         <v>61</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
